--- a/experiments/init/results/datasets_modularity_any3_bestparam_byari_individual.xlsx
+++ b/experiments/init/results/datasets_modularity_any3_bestparam_byari_individual.xlsx
@@ -49,31 +49,31 @@
     <t>karate</t>
   </si>
   <si>
-    <t>news_2cl_1</t>
-  </si>
-  <si>
-    <t>news_2cl_2</t>
-  </si>
-  <si>
-    <t>news_2cl_3</t>
-  </si>
-  <si>
-    <t>news_3cl_1</t>
-  </si>
-  <si>
-    <t>news_3cl_2</t>
-  </si>
-  <si>
-    <t>news_3cl_3</t>
-  </si>
-  <si>
-    <t>news_5cl_1</t>
-  </si>
-  <si>
-    <t>news_5cl_2</t>
-  </si>
-  <si>
-    <t>news_5cl_3</t>
+    <t>news_2cl1_0.1</t>
+  </si>
+  <si>
+    <t>news_2cl2_0.1</t>
+  </si>
+  <si>
+    <t>news_2cl3_0.1</t>
+  </si>
+  <si>
+    <t>news_3cl1_0.1</t>
+  </si>
+  <si>
+    <t>news_3cl2_0.1</t>
+  </si>
+  <si>
+    <t>news_3cl3_0.1</t>
+  </si>
+  <si>
+    <t>news_5cl1_0.1</t>
+  </si>
+  <si>
+    <t>news_5cl2_0.1</t>
+  </si>
+  <si>
+    <t>news_5cl3_0.1</t>
   </si>
   <si>
     <t>polblogs</t>
@@ -603,76 +603,76 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>0.1805302394683021</v>
+        <v>0.1704073429511008</v>
       </c>
       <c r="C2">
-        <v>0.3677240275112943</v>
+        <v>0.356728549412301</v>
       </c>
       <c r="D2">
-        <v>0.4276329598995787</v>
+        <v>0.4839620683354885</v>
       </c>
       <c r="E2">
-        <v>0.7377550497484849</v>
+        <v>0.7177585594622862</v>
       </c>
       <c r="F2">
-        <v>0.2282579869506524</v>
+        <v>0.2421529802916879</v>
       </c>
       <c r="G2">
-        <v>0.1460994419736906</v>
+        <v>0.1412071394495224</v>
       </c>
       <c r="H2">
-        <v>0.9456950251519066</v>
+        <v>0.9441434544419611</v>
       </c>
       <c r="I2">
-        <v>0.0015810272263157</v>
+        <v>0.001697414975121458</v>
       </c>
       <c r="J2">
-        <v>0.4876643765221444</v>
+        <v>0.455339022176088</v>
       </c>
       <c r="K2">
-        <v>0.7280596173588719</v>
+        <v>0.729485081352318</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.233404225054928</v>
+        <v>0.7328229953244192</v>
       </c>
       <c r="N2">
-        <v>0.2921770078816978</v>
+        <v>0.6318498684322241</v>
       </c>
       <c r="O2">
-        <v>0.2309598019372195</v>
+        <v>0.8506457058592467</v>
       </c>
       <c r="P2">
-        <v>0.0867509389830073</v>
+        <v>0.7680138387733862</v>
       </c>
       <c r="Q2">
-        <v>0.3902890955661628</v>
+        <v>0.4075765922454879</v>
       </c>
       <c r="R2">
-        <v>0.2369731777849023</v>
+        <v>0.6653103172469699</v>
       </c>
       <c r="S2">
-        <v>0.1334262154572589</v>
+        <v>0.4698596303574071</v>
       </c>
       <c r="T2">
-        <v>0.04683030685179426</v>
+        <v>0.3516131416696361</v>
       </c>
       <c r="U2">
-        <v>0.04069708629415118</v>
+        <v>0.3122706163456805</v>
       </c>
       <c r="V2">
-        <v>0.2756531706595134</v>
+        <v>0.2817391107668185</v>
       </c>
       <c r="W2">
-        <v>0.6896615789173169</v>
+        <v>0.6976371923193748</v>
       </c>
       <c r="X2">
-        <v>0.2152081447753724</v>
+        <v>0.2176555644952547</v>
       </c>
       <c r="Y2">
-        <v>0.262108765690622</v>
+        <v>0.2699453685972298</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -680,76 +680,76 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.05330560934729658</v>
+        <v>0.05736845197612334</v>
       </c>
       <c r="C3">
-        <v>0.1263906247233826</v>
+        <v>0.1223792518210123</v>
       </c>
       <c r="D3">
-        <v>0.1978131409926679</v>
+        <v>0.1921272132594403</v>
       </c>
       <c r="E3">
-        <v>0.1052607723679407</v>
+        <v>0.09092234520646425</v>
       </c>
       <c r="F3">
-        <v>0.2049055324563301</v>
+        <v>0.2140245171081765</v>
       </c>
       <c r="G3">
-        <v>0.0376948467394723</v>
+        <v>0.03468509211129151</v>
       </c>
       <c r="H3">
-        <v>0.9034641821373416</v>
+        <v>0.9168593185790355</v>
       </c>
       <c r="I3">
-        <v>0.06281585425580227</v>
+        <v>0.05978491292047727</v>
       </c>
       <c r="J3">
-        <v>0.1618650594355551</v>
+        <v>0.1930101953107396</v>
       </c>
       <c r="K3">
-        <v>0.9086180486083558</v>
+        <v>0.9098380064193619</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8583952813102153</v>
+        <v>0.5782432587642944</v>
       </c>
       <c r="N3">
-        <v>0.7280471201236497</v>
+        <v>0.4541027992958893</v>
       </c>
       <c r="O3">
-        <v>0.791089453928405</v>
+        <v>0.4897888664437008</v>
       </c>
       <c r="P3">
-        <v>0.4676017409010727</v>
+        <v>0.3070056425519316</v>
       </c>
       <c r="Q3">
-        <v>0.5241949269068686</v>
+        <v>0.2797197255049968</v>
       </c>
       <c r="R3">
-        <v>0.5781321017252076</v>
+        <v>0.4159741067078188</v>
       </c>
       <c r="S3">
-        <v>0.3207428054280756</v>
+        <v>0.1980503999328056</v>
       </c>
       <c r="T3">
-        <v>0.2540347116035425</v>
+        <v>0.1936443611911294</v>
       </c>
       <c r="U3">
-        <v>0.3049300182188164</v>
+        <v>0.1937121039525885</v>
       </c>
       <c r="V3">
-        <v>0.5165731801823393</v>
+        <v>0.4427865566176992</v>
       </c>
       <c r="W3">
-        <v>0.6326234401883197</v>
+        <v>0.6302655683832158</v>
       </c>
       <c r="X3">
-        <v>0.7086841914834713</v>
+        <v>0.7154581849988731</v>
       </c>
       <c r="Y3">
-        <v>0.706682206852779</v>
+        <v>0.7090129085359559</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -757,76 +757,76 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.05313060889875315</v>
+        <v>0.05057842806067726</v>
       </c>
       <c r="C4">
-        <v>0.1989281474832657</v>
+        <v>0.1755364073116683</v>
       </c>
       <c r="D4">
-        <v>0.1978282910387695</v>
+        <v>0.1972642551234543</v>
       </c>
       <c r="E4">
-        <v>0.09827885127078605</v>
+        <v>0.08295372750742007</v>
       </c>
       <c r="F4">
-        <v>0.1862936958343273</v>
+        <v>0.1983962432418107</v>
       </c>
       <c r="G4">
-        <v>0.03952007147707363</v>
+        <v>0.0392040253737358</v>
       </c>
       <c r="H4">
-        <v>0.9243774141673059</v>
+        <v>0.9169084027280329</v>
       </c>
       <c r="I4">
-        <v>0.06880679749479471</v>
+        <v>0.05944060782310859</v>
       </c>
       <c r="J4">
-        <v>0.200942007518513</v>
+        <v>0.1696652258227505</v>
       </c>
       <c r="K4">
-        <v>0.9063341575567591</v>
+        <v>0.9085315081710673</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7376902300972153</v>
+        <v>0.4404837267835993</v>
       </c>
       <c r="N4">
-        <v>0.6182521112313694</v>
+        <v>0.3705212573193334</v>
       </c>
       <c r="O4">
-        <v>0.7826257352981182</v>
+        <v>0.4051031471508061</v>
       </c>
       <c r="P4">
-        <v>0.4164703649792971</v>
+        <v>0.2321598205262059</v>
       </c>
       <c r="Q4">
-        <v>0.4693460311517024</v>
+        <v>0.2820570814026689</v>
       </c>
       <c r="R4">
-        <v>0.5249429296651992</v>
+        <v>0.3323115463975346</v>
       </c>
       <c r="S4">
-        <v>0.2964603552567993</v>
+        <v>0.1941693417724352</v>
       </c>
       <c r="T4">
-        <v>0.2091402437080554</v>
+        <v>0.1705511572356367</v>
       </c>
       <c r="U4">
-        <v>0.2521722428449722</v>
+        <v>0.1739528615849266</v>
       </c>
       <c r="V4">
-        <v>0.419970599573106</v>
+        <v>0.4027857907394888</v>
       </c>
       <c r="W4">
-        <v>0.6183722875479373</v>
+        <v>0.6093444591184234</v>
       </c>
       <c r="X4">
-        <v>0.6741923747214759</v>
+        <v>0.658009417765131</v>
       </c>
       <c r="Y4">
-        <v>0.6888131244769943</v>
+        <v>0.6960559240754345</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -834,76 +834,76 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>0.212458462115251</v>
+        <v>0.2145768404814079</v>
       </c>
       <c r="C5">
-        <v>0.215641259285785</v>
+        <v>0.2147845582125477</v>
       </c>
       <c r="D5">
-        <v>0.4261923802452486</v>
+        <v>0.4277299903942255</v>
       </c>
       <c r="E5">
-        <v>0.4818568380358652</v>
+        <v>0.4748920033576822</v>
       </c>
       <c r="F5">
-        <v>0.3069561525930896</v>
+        <v>0.2947806436127332</v>
       </c>
       <c r="G5">
-        <v>0.2076424711991555</v>
+        <v>0.1916683142272411</v>
       </c>
       <c r="H5">
         <v>0.9348340301822881</v>
       </c>
       <c r="I5">
-        <v>0.5575826960083613</v>
+        <v>0.5603654903202047</v>
       </c>
       <c r="J5">
-        <v>0.9243079742185768</v>
+        <v>0.9245951510398976</v>
       </c>
       <c r="K5">
-        <v>0.9047201329291412</v>
+        <v>0.9063341575567591</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9198031730338783</v>
+        <v>0.7765906793404322</v>
       </c>
       <c r="N5">
-        <v>0.7921209487587167</v>
+        <v>0.7452526793760202</v>
       </c>
       <c r="O5">
-        <v>0.9147948540552623</v>
+        <v>0.8827382563635516</v>
       </c>
       <c r="P5">
-        <v>0.8441908467612311</v>
+        <v>0.7957129695544717</v>
       </c>
       <c r="Q5">
-        <v>0.8498574373707454</v>
+        <v>0.7487810348371872</v>
       </c>
       <c r="R5">
-        <v>0.8449734425483465</v>
+        <v>0.7206902328497009</v>
       </c>
       <c r="S5">
-        <v>0.76900831285423</v>
+        <v>0.7268491181684863</v>
       </c>
       <c r="T5">
-        <v>0.6147437889111996</v>
+        <v>0.6030224300401051</v>
       </c>
       <c r="U5">
-        <v>0.6463736247427233</v>
+        <v>0.5098360317676801</v>
       </c>
       <c r="V5">
-        <v>0.8413987059771189</v>
+        <v>0.8407547736936791</v>
       </c>
       <c r="W5">
-        <v>0.6854914157087255</v>
+        <v>0.6845320503595907</v>
       </c>
       <c r="X5">
-        <v>0.8395296438211027</v>
+        <v>0.8345577420699897</v>
       </c>
       <c r="Y5">
-        <v>0.847079544318598</v>
+        <v>0.8460377892659905</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -911,76 +911,76 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.1747623416658862</v>
+        <v>0.1781965510254136</v>
       </c>
       <c r="C6">
-        <v>0.2847745900114854</v>
+        <v>0.32238242889421</v>
       </c>
       <c r="D6">
-        <v>0.4319894059476112</v>
+        <v>0.4055142141499735</v>
       </c>
       <c r="E6">
-        <v>0.7384143224588127</v>
+        <v>0.7213565126141656</v>
       </c>
       <c r="F6">
-        <v>0.2819473847167265</v>
+        <v>0.2477020263507382</v>
       </c>
       <c r="G6">
-        <v>0.1906556971333597</v>
+        <v>0.1716581987882308</v>
       </c>
       <c r="H6">
         <v>0.9348340301822881</v>
       </c>
       <c r="I6">
-        <v>0.001852554479106381</v>
+        <v>0.001630405950858504</v>
       </c>
       <c r="J6">
-        <v>0.4971294970979148</v>
+        <v>0.5067580323870228</v>
       </c>
       <c r="K6">
-        <v>0.7393921373615298</v>
+        <v>0.7486873500024045</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5709835586309568</v>
+        <v>0.7377973523406329</v>
       </c>
       <c r="N6">
-        <v>0.3701905979276885</v>
+        <v>0.6271907850445618</v>
       </c>
       <c r="O6">
-        <v>0.6385337955610773</v>
+        <v>0.8545696303545657</v>
       </c>
       <c r="P6">
-        <v>0.1996572487714925</v>
+        <v>0.7726959765439915</v>
       </c>
       <c r="Q6">
-        <v>0.3936367526548428</v>
+        <v>0.4679300445107715</v>
       </c>
       <c r="R6">
-        <v>0.3126972606207216</v>
+        <v>0.6713481759891528</v>
       </c>
       <c r="S6">
-        <v>0.1230417375084033</v>
+        <v>0.4721349548109052</v>
       </c>
       <c r="T6">
-        <v>0.1262442920660444</v>
+        <v>0.377008536557702</v>
       </c>
       <c r="U6">
-        <v>0.08853657981283973</v>
+        <v>0.3281260867365193</v>
       </c>
       <c r="V6">
-        <v>0.514780671240731</v>
+        <v>0.5008470255730429</v>
       </c>
       <c r="W6">
-        <v>0.6979910588763758</v>
+        <v>0.7005722101568924</v>
       </c>
       <c r="X6">
-        <v>0.2280334419872734</v>
+        <v>0.2285048228217197</v>
       </c>
       <c r="Y6">
-        <v>0.2595198318424034</v>
+        <v>0.2502578833490512</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -988,76 +988,76 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>0.2046996317463062</v>
+        <v>0.1915232817899973</v>
       </c>
       <c r="C7">
-        <v>0.4356346852936865</v>
+        <v>0.4176223290778437</v>
       </c>
       <c r="D7">
-        <v>0.4229204004516801</v>
+        <v>0.4312493284517939</v>
       </c>
       <c r="E7">
-        <v>0.7190718694581317</v>
+        <v>0.7010299727104105</v>
       </c>
       <c r="F7">
-        <v>0.2811538385745727</v>
+        <v>0.2745452881335841</v>
       </c>
       <c r="G7">
-        <v>0.1940134215573601</v>
+        <v>0.183503348962349</v>
       </c>
       <c r="H7">
         <v>0.9348340301822881</v>
       </c>
       <c r="I7">
-        <v>0.00153904318461035</v>
+        <v>0.001526297374873597</v>
       </c>
       <c r="J7">
-        <v>0.5239112475196986</v>
+        <v>0.5391651722317894</v>
       </c>
       <c r="K7">
-        <v>0.9003326134929671</v>
+        <v>0.9009403132066609</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8693020115726996</v>
+        <v>0.7639511733838699</v>
       </c>
       <c r="N7">
-        <v>0.7610969352303857</v>
+        <v>0.7452238582525068</v>
       </c>
       <c r="O7">
-        <v>0.8720495731175292</v>
+        <v>0.8732952829222481</v>
       </c>
       <c r="P7">
-        <v>0.7846010799861384</v>
+        <v>0.7902912801061854</v>
       </c>
       <c r="Q7">
-        <v>0.7231509973920035</v>
+        <v>0.6141108830326418</v>
       </c>
       <c r="R7">
-        <v>0.5819093818476427</v>
+        <v>0.695685214304843</v>
       </c>
       <c r="S7">
-        <v>0.3789535795600662</v>
+        <v>0.5628423622652087</v>
       </c>
       <c r="T7">
-        <v>0.3431122373659503</v>
+        <v>0.4560816668756275</v>
       </c>
       <c r="U7">
-        <v>0.438331254842911</v>
+        <v>0.3750861082828968</v>
       </c>
       <c r="V7">
-        <v>0.8190121058308794</v>
+        <v>0.8181675311271537</v>
       </c>
       <c r="W7">
         <v>0.7078194223262297</v>
       </c>
       <c r="X7">
-        <v>0.5370296369041661</v>
+        <v>0.5027889483046167</v>
       </c>
       <c r="Y7">
-        <v>0.5123757233391895</v>
+        <v>0.5151250718561082</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1065,76 +1065,76 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.1809506707468459</v>
+        <v>0.1698928093259751</v>
       </c>
       <c r="C8">
-        <v>0.1860420530792795</v>
+        <v>0.186003857869409</v>
       </c>
       <c r="D8">
-        <v>0.3828456185520028</v>
+        <v>0.3703058919078946</v>
       </c>
       <c r="E8">
-        <v>0.522669273180464</v>
+        <v>0.4993409140141822</v>
       </c>
       <c r="F8">
-        <v>0.3034351268418452</v>
+        <v>0.3045898019011283</v>
       </c>
       <c r="G8">
-        <v>0.2011256982583476</v>
+        <v>0.2068481995459005</v>
       </c>
       <c r="H8">
         <v>0.9348340301822881</v>
       </c>
       <c r="I8">
-        <v>0.2134650966560687</v>
+        <v>0.2220206407813535</v>
       </c>
       <c r="J8">
-        <v>0.840909619243969</v>
+        <v>0.8367031643292028</v>
       </c>
       <c r="K8">
-        <v>0.9036354399678426</v>
+        <v>0.9010938322362991</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9214030348233581</v>
+        <v>0.7880366887449611</v>
       </c>
       <c r="N8">
-        <v>0.7891090794932993</v>
+        <v>0.7340594454508785</v>
       </c>
       <c r="O8">
-        <v>0.9036449066093289</v>
+        <v>0.8719756775533731</v>
       </c>
       <c r="P8">
-        <v>0.830993852895013</v>
+        <v>0.8123691983972429</v>
       </c>
       <c r="Q8">
-        <v>0.8016980232478114</v>
+        <v>0.7039597205667221</v>
       </c>
       <c r="R8">
-        <v>0.8156777632794334</v>
+        <v>0.7319297227343566</v>
       </c>
       <c r="S8">
-        <v>0.6279172841663915</v>
+        <v>0.6565000882423254</v>
       </c>
       <c r="T8">
-        <v>0.5487470392797993</v>
+        <v>0.4705747594242717</v>
       </c>
       <c r="U8">
-        <v>0.4795807070795184</v>
+        <v>0.419135746389218</v>
       </c>
       <c r="V8">
-        <v>0.8210240743822301</v>
+        <v>0.8267032971748242</v>
       </c>
       <c r="W8">
-        <v>0.717657037751818</v>
+        <v>0.7057394413562369</v>
       </c>
       <c r="X8">
-        <v>0.814563475223577</v>
+        <v>0.8086549397051409</v>
       </c>
       <c r="Y8">
-        <v>0.8323793880572041</v>
+        <v>0.832916629017646</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1142,76 +1142,76 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0.07765024075586381</v>
+        <v>0.07973105660390659</v>
       </c>
       <c r="C9">
-        <v>0.2232698559025263</v>
+        <v>0.2307087674196025</v>
       </c>
       <c r="D9">
-        <v>0.1994383772014091</v>
+        <v>0.198393199075518</v>
       </c>
       <c r="E9">
-        <v>0.06979450079240218</v>
+        <v>0.08929163693638638</v>
       </c>
       <c r="F9">
-        <v>0.2342154089764658</v>
+        <v>0.2493941415402153</v>
       </c>
       <c r="G9">
-        <v>0.06766725289611623</v>
+        <v>0.07672436670341619</v>
       </c>
       <c r="H9">
         <v>0.9348340301822881</v>
       </c>
       <c r="I9">
-        <v>0.07987495762391496</v>
+        <v>0.07798965160944545</v>
       </c>
       <c r="J9">
-        <v>0.2637859216151109</v>
+        <v>0.2482919420242717</v>
       </c>
       <c r="K9">
-        <v>0.7633595083147755</v>
+        <v>0.756060987993609</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5725747381920744</v>
+        <v>0.4702722467455348</v>
       </c>
       <c r="N9">
-        <v>0.5180651000680486</v>
+        <v>0.293077150618152</v>
       </c>
       <c r="O9">
-        <v>0.7299815094275406</v>
+        <v>0.57230649008879</v>
       </c>
       <c r="P9">
-        <v>0.4024801580237369</v>
+        <v>0.3850150221127738</v>
       </c>
       <c r="Q9">
-        <v>0.4474105272153779</v>
+        <v>0.2123498712315159</v>
       </c>
       <c r="R9">
-        <v>0.4025094307167115</v>
+        <v>0.3874953657945631</v>
       </c>
       <c r="S9">
-        <v>0.2578591057867205</v>
+        <v>0.1954480147629532</v>
       </c>
       <c r="T9">
-        <v>0.188223887066606</v>
+        <v>0.1896224626721925</v>
       </c>
       <c r="U9">
-        <v>0.1882671470584357</v>
+        <v>0.1688013951053361</v>
       </c>
       <c r="V9">
-        <v>0.7368917301158926</v>
+        <v>0.7740185367406117</v>
       </c>
       <c r="W9">
-        <v>0.6172770526813964</v>
+        <v>0.6286872641355606</v>
       </c>
       <c r="X9">
-        <v>0.7988528208603435</v>
+        <v>0.7935015963559957</v>
       </c>
       <c r="Y9">
-        <v>0.7232510392392685</v>
+        <v>0.7223548674399047</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1219,76 +1219,76 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>0.160067808614556</v>
+        <v>0.168506520909559</v>
       </c>
       <c r="C10">
-        <v>0.287270010351575</v>
+        <v>0.3242173804252323</v>
       </c>
       <c r="D10">
-        <v>0.3933692636666992</v>
+        <v>0.3634880190796125</v>
       </c>
       <c r="E10">
-        <v>0.5187749943495171</v>
+        <v>0.4809491537303444</v>
       </c>
       <c r="F10">
-        <v>0.2285322450558507</v>
+        <v>0.2245482789539519</v>
       </c>
       <c r="G10">
-        <v>0.1363127240483082</v>
+        <v>0.1532070858741682</v>
       </c>
       <c r="H10">
-        <v>0.9348340301822881</v>
+        <v>0.9534528787016344</v>
       </c>
       <c r="I10">
-        <v>0.001375949230464126</v>
+        <v>0.001286717199085254</v>
       </c>
       <c r="J10">
-        <v>0.3704935013443627</v>
+        <v>0.375267696086142</v>
       </c>
       <c r="K10">
-        <v>0.7105447863536445</v>
+        <v>0.702767775001618</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1867899780337516</v>
+        <v>0.7108637322830197</v>
       </c>
       <c r="N10">
-        <v>0.2265424582106765</v>
+        <v>0.6048935478703895</v>
       </c>
       <c r="O10">
-        <v>0.2087671701144451</v>
+        <v>0.8243817786948398</v>
       </c>
       <c r="P10">
-        <v>0.08510591629906494</v>
+        <v>0.7488171909672913</v>
       </c>
       <c r="Q10">
-        <v>0.3330741975098551</v>
+        <v>0.3100195068036487</v>
       </c>
       <c r="R10">
-        <v>0.1626661649392184</v>
+        <v>0.6282653090358304</v>
       </c>
       <c r="S10">
-        <v>0.170736220859984</v>
+        <v>0.4501199992179151</v>
       </c>
       <c r="T10">
-        <v>0.1265225265294445</v>
+        <v>0.2912056538684172</v>
       </c>
       <c r="U10">
-        <v>0.1084340488834713</v>
+        <v>0.2389629297239695</v>
       </c>
       <c r="V10">
-        <v>0.0003097152026370598</v>
+        <v>0.05746433328406354</v>
       </c>
       <c r="W10">
-        <v>0.6967018410092861</v>
+        <v>0.6967306950754827</v>
       </c>
       <c r="X10">
-        <v>0.1835968630497159</v>
+        <v>0.2113736210145768</v>
       </c>
       <c r="Y10">
-        <v>0.1678246159226939</v>
+        <v>0.1763277648868388</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1296,76 +1296,76 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>0.1613286068988843</v>
+        <v>0.160039199674769</v>
       </c>
       <c r="C11">
-        <v>0.1690457358767855</v>
+        <v>0.1779358459213698</v>
       </c>
       <c r="D11">
-        <v>0.3727945094566645</v>
+        <v>0.3793054629350002</v>
       </c>
       <c r="E11">
-        <v>0.486491541239338</v>
+        <v>0.4950233417990102</v>
       </c>
       <c r="F11">
-        <v>0.3368872951790436</v>
+        <v>0.3517671146014735</v>
       </c>
       <c r="G11">
-        <v>0.205476210669473</v>
+        <v>0.1897988578622566</v>
       </c>
       <c r="H11">
         <v>0.9348340301822881</v>
       </c>
       <c r="I11">
-        <v>0.1382449925407847</v>
+        <v>0.1302003316946695</v>
       </c>
       <c r="J11">
-        <v>0.7410718837220541</v>
+        <v>0.7644632237454917</v>
       </c>
       <c r="K11">
-        <v>0.8987661052129741</v>
+        <v>0.8969201167321261</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9166119104095064</v>
+        <v>0.7803838191930705</v>
       </c>
       <c r="N11">
-        <v>0.761040055335617</v>
+        <v>0.7514473615785524</v>
       </c>
       <c r="O11">
-        <v>0.8925283749924503</v>
+        <v>0.8639833712478923</v>
       </c>
       <c r="P11">
-        <v>0.8275474807903076</v>
+        <v>0.8006509878075846</v>
       </c>
       <c r="Q11">
-        <v>0.796241477964773</v>
+        <v>0.6709713849064805</v>
       </c>
       <c r="R11">
-        <v>0.7954892295746294</v>
+        <v>0.7419961402276624</v>
       </c>
       <c r="S11">
-        <v>0.6337491215635054</v>
+        <v>0.6119226941346886</v>
       </c>
       <c r="T11">
-        <v>0.5362491127708008</v>
+        <v>0.4806904680789946</v>
       </c>
       <c r="U11">
-        <v>0.4606530233048785</v>
+        <v>0.3971993386791248</v>
       </c>
       <c r="V11">
-        <v>0.8224985139085295</v>
+        <v>0.8164791585348057</v>
       </c>
       <c r="W11">
-        <v>0.7134319172031812</v>
+        <v>0.7190515704167442</v>
       </c>
       <c r="X11">
-        <v>0.7985014491092325</v>
+        <v>0.8059978217840494</v>
       </c>
       <c r="Y11">
-        <v>0.8272954201943602</v>
+        <v>0.8304258219839363</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1373,76 +1373,76 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>0.178840006650019</v>
+        <v>0.1829515239335514</v>
       </c>
       <c r="C12">
-        <v>0.2307463255201489</v>
+        <v>0.2563075833539592</v>
       </c>
       <c r="D12">
-        <v>0.3902235845811075</v>
+        <v>0.3866247056955229</v>
       </c>
       <c r="E12">
-        <v>0.4278644178907827</v>
+        <v>0.4523089656840361</v>
       </c>
       <c r="F12">
-        <v>0.2675957168319731</v>
+        <v>0.2892953102380775</v>
       </c>
       <c r="G12">
-        <v>0.1830849187200701</v>
+        <v>0.1823258302474938</v>
       </c>
       <c r="H12">
         <v>0.9348340301822881</v>
       </c>
       <c r="I12">
-        <v>0.09631524989753136</v>
+        <v>0.09353350876160853</v>
       </c>
       <c r="J12">
-        <v>0.7959019432064572</v>
+        <v>0.7761369926002957</v>
       </c>
       <c r="K12">
-        <v>0.7401073225379694</v>
+        <v>0.7484830635538609</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6083493298709985</v>
+        <v>0.7664934109837616</v>
       </c>
       <c r="N12">
-        <v>0.4088045377129195</v>
+        <v>0.6809762987007586</v>
       </c>
       <c r="O12">
-        <v>0.7831133292452258</v>
+        <v>0.857317860174561</v>
       </c>
       <c r="P12">
-        <v>0.459433718595184</v>
+        <v>0.7785653781880922</v>
       </c>
       <c r="Q12">
-        <v>0.4389779246100182</v>
+        <v>0.5071440983528702</v>
       </c>
       <c r="R12">
-        <v>0.4654436655469484</v>
+        <v>0.6915643957581193</v>
       </c>
       <c r="S12">
-        <v>0.2676699555551383</v>
+        <v>0.6025064148942673</v>
       </c>
       <c r="T12">
-        <v>0.2657342194605586</v>
+        <v>0.4242965832925387</v>
       </c>
       <c r="U12">
-        <v>0.2612120949390696</v>
+        <v>0.3111528550504772</v>
       </c>
       <c r="V12">
-        <v>0.8274495114569644</v>
+        <v>0.8313475177441508</v>
       </c>
       <c r="W12">
-        <v>0.7293397145192064</v>
+        <v>0.728584984412689</v>
       </c>
       <c r="X12">
-        <v>0.7960637117148101</v>
+        <v>0.7944151199346272</v>
       </c>
       <c r="Y12">
-        <v>0.8201710378613241</v>
+        <v>0.7997148349844971</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1450,76 +1450,76 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.2075439706989642</v>
+        <v>0.2072765523184849</v>
       </c>
       <c r="C13">
-        <v>0.2386905277283679</v>
+        <v>0.2299689859807116</v>
       </c>
       <c r="D13">
-        <v>0.423439772630942</v>
+        <v>0.4397189859183285</v>
       </c>
       <c r="E13">
-        <v>0.6394972090972765</v>
+        <v>0.6860526098250853</v>
       </c>
       <c r="F13">
-        <v>0.2862429630399173</v>
+        <v>0.2855086581856873</v>
       </c>
       <c r="G13">
-        <v>0.181435867345085</v>
+        <v>0.1883063925561647</v>
       </c>
       <c r="H13">
         <v>0.9348340301822881</v>
       </c>
       <c r="I13">
-        <v>0.5687357461060051</v>
+        <v>0.5744596027718324</v>
       </c>
       <c r="J13">
-        <v>0.9119887692988362</v>
+        <v>0.9064463277899432</v>
       </c>
       <c r="K13">
-        <v>0.9014920836739053</v>
+        <v>0.9049507078759438</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9038548710598392</v>
+        <v>0.7677413646665713</v>
       </c>
       <c r="N13">
-        <v>0.7464136766100528</v>
+        <v>0.7303308383193069</v>
       </c>
       <c r="O13">
-        <v>0.9212095753630495</v>
+        <v>0.8827382563635516</v>
       </c>
       <c r="P13">
-        <v>0.8364847486103087</v>
+        <v>0.7962246139932786</v>
       </c>
       <c r="Q13">
-        <v>0.8280297543321415</v>
+        <v>0.7379170474455564</v>
       </c>
       <c r="R13">
-        <v>0.8360035587496322</v>
+        <v>0.7148364475015834</v>
       </c>
       <c r="S13">
-        <v>0.7552563555703401</v>
+        <v>0.7167049924609959</v>
       </c>
       <c r="T13">
-        <v>0.6173011810695119</v>
+        <v>0.6026806582212869</v>
       </c>
       <c r="U13">
-        <v>0.5603639280709584</v>
+        <v>0.5222098360006856</v>
       </c>
       <c r="V13">
         <v>0.8429013502758896</v>
       </c>
       <c r="W13">
-        <v>0.6730684444073388</v>
+        <v>0.6683416165751727</v>
       </c>
       <c r="X13">
-        <v>0.8338543000233031</v>
+        <v>0.8322359519033474</v>
       </c>
       <c r="Y13">
-        <v>0.8433557515065934</v>
+        <v>0.8420778145187384</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1527,31 +1527,31 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0.2347737833698154</v>
+        <v>0.2292308562753789</v>
       </c>
       <c r="C14">
-        <v>0.3588313802284931</v>
+        <v>0.4002407449202688</v>
       </c>
       <c r="D14">
-        <v>0.5096339807885123</v>
+        <v>0.5128488988591319</v>
       </c>
       <c r="E14">
-        <v>0.8139077197878892</v>
+        <v>0.8213078631053879</v>
       </c>
       <c r="F14">
-        <v>0.3550998877277476</v>
+        <v>0.3452517963197889</v>
       </c>
       <c r="G14">
-        <v>0.2495363627903433</v>
+        <v>0.2521530264433235</v>
       </c>
       <c r="H14">
         <v>0.9348340301822881</v>
       </c>
       <c r="I14">
-        <v>0.5412812754764588</v>
+        <v>0.5430453889862451</v>
       </c>
       <c r="J14">
-        <v>0.9109208990157761</v>
+        <v>0.9107553953901207</v>
       </c>
       <c r="K14">
         <v>0.8966500097910517</v>
@@ -1560,31 +1560,31 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.913403845092184</v>
+        <v>0.7816525449285594</v>
       </c>
       <c r="N14">
-        <v>0.763934324085922</v>
+        <v>0.7426930060523353</v>
       </c>
       <c r="O14">
-        <v>0.8456433503030162</v>
+        <v>0.882737960270732</v>
       </c>
       <c r="P14">
-        <v>0.8475546755971456</v>
+        <v>0.7937452103934628</v>
       </c>
       <c r="Q14">
-        <v>0.8338799927201658</v>
+        <v>0.7189560516640151</v>
       </c>
       <c r="R14">
-        <v>0.8349789339563686</v>
+        <v>0.6986103215261866</v>
       </c>
       <c r="S14">
-        <v>0.7044394772368819</v>
+        <v>0.7138819582350495</v>
       </c>
       <c r="T14">
-        <v>0.6089830903488628</v>
+        <v>0.5969887596956022</v>
       </c>
       <c r="U14">
-        <v>0.6509778635343549</v>
+        <v>0.4935978453349074</v>
       </c>
       <c r="V14">
         <v>0.8549760218270855</v>
@@ -1593,10 +1593,10 @@
         <v>0.6875568571981948</v>
       </c>
       <c r="X14">
-        <v>0.8256307002759454</v>
+        <v>0.8282587000748857</v>
       </c>
       <c r="Y14">
-        <v>0.8405011250510169</v>
+        <v>0.8414023146871764</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1604,76 +1604,76 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>0.2271586494995034</v>
+        <v>0.225367966634182</v>
       </c>
       <c r="C15">
-        <v>0.3787134715925689</v>
+        <v>0.3626810452502087</v>
       </c>
       <c r="D15">
-        <v>0.5040314001859866</v>
+        <v>0.5075720787874125</v>
       </c>
       <c r="E15">
-        <v>0.8276259662665489</v>
+        <v>0.8275166057112168</v>
       </c>
       <c r="F15">
-        <v>0.3461945400797581</v>
+        <v>0.345262059055584</v>
       </c>
       <c r="G15">
-        <v>0.2323550900907581</v>
+        <v>0.2342094300554211</v>
       </c>
       <c r="H15">
         <v>0.9348340301822881</v>
       </c>
       <c r="I15">
-        <v>0.5113657260875862</v>
+        <v>0.511442107962143</v>
       </c>
       <c r="J15">
-        <v>0.912002852497697</v>
+        <v>0.913663746428534</v>
       </c>
       <c r="K15">
-        <v>0.8970423062472442</v>
+        <v>0.8977599933075269</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9070545874872805</v>
+        <v>0.7995774761429154</v>
       </c>
       <c r="N15">
-        <v>0.8011927041458428</v>
+        <v>0.7702575376747424</v>
       </c>
       <c r="O15">
-        <v>0.9228302020162685</v>
+        <v>0.8868140300535272</v>
       </c>
       <c r="P15">
-        <v>0.8452527690490337</v>
+        <v>0.8053279198490635</v>
       </c>
       <c r="Q15">
-        <v>0.8391247562247351</v>
+        <v>0.7189812059212793</v>
       </c>
       <c r="R15">
-        <v>0.8516484207856054</v>
+        <v>0.7311768153950788</v>
       </c>
       <c r="S15">
-        <v>0.7069497557454397</v>
+        <v>0.7218883443773807</v>
       </c>
       <c r="T15">
-        <v>0.5969755786289086</v>
+        <v>0.6020571218532226</v>
       </c>
       <c r="U15">
-        <v>0.652015703928262</v>
+        <v>0.483602964909061</v>
       </c>
       <c r="V15">
-        <v>0.8459118506428666</v>
+        <v>0.8459118522940499</v>
       </c>
       <c r="W15">
         <v>0.6875568571981948</v>
       </c>
       <c r="X15">
-        <v>0.8298447597433786</v>
+        <v>0.8308433068716878</v>
       </c>
       <c r="Y15">
-        <v>0.839190722764051</v>
+        <v>0.839349672389113</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1681,76 +1681,76 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.2178586619601635</v>
+        <v>0.2152525855564558</v>
       </c>
       <c r="C16">
-        <v>0.2382521787937451</v>
+        <v>0.2563291596452648</v>
       </c>
       <c r="D16">
-        <v>0.4870591196595828</v>
+        <v>0.4858206838117733</v>
       </c>
       <c r="E16">
-        <v>0.7257661224918355</v>
+        <v>0.7093831754664626</v>
       </c>
       <c r="F16">
-        <v>0.3296217667043933</v>
+        <v>0.2995395180475583</v>
       </c>
       <c r="G16">
-        <v>0.2329938119467874</v>
+        <v>0.2424646051686342</v>
       </c>
       <c r="H16">
         <v>0.9348340301822881</v>
       </c>
       <c r="I16">
-        <v>0.4968229165808946</v>
+        <v>0.5058170767323092</v>
       </c>
       <c r="J16">
-        <v>0.8744256379595253</v>
+        <v>0.8720442337390513</v>
       </c>
       <c r="K16">
-        <v>0.877923613058075</v>
+        <v>0.8762851669872181</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7694450302981338</v>
+        <v>0.7767300618343091</v>
       </c>
       <c r="N16">
-        <v>0.6980349834465311</v>
+        <v>0.7193549299979877</v>
       </c>
       <c r="O16">
-        <v>0.9212095753630495</v>
+        <v>0.8840942829737956</v>
       </c>
       <c r="P16">
-        <v>0.8173321550573158</v>
+        <v>0.7808031712920782</v>
       </c>
       <c r="Q16">
-        <v>0.7196580130410032</v>
+        <v>0.7247896102476467</v>
       </c>
       <c r="R16">
-        <v>0.796778378705577</v>
+        <v>0.7261165267908483</v>
       </c>
       <c r="S16">
-        <v>0.7306235488573564</v>
+        <v>0.7004873790219361</v>
       </c>
       <c r="T16">
-        <v>0.5988268129571157</v>
+        <v>0.5531852934261565</v>
       </c>
       <c r="U16">
-        <v>0.4847781121038861</v>
+        <v>0.4907021244508353</v>
       </c>
       <c r="V16">
-        <v>0.8125984332113587</v>
+        <v>0.8118253666773235</v>
       </c>
       <c r="W16">
-        <v>0.6749134484694115</v>
+        <v>0.6781670272357978</v>
       </c>
       <c r="X16">
-        <v>0.8377047624002331</v>
+        <v>0.8389738014184711</v>
       </c>
       <c r="Y16">
-        <v>0.8446415035027949</v>
+        <v>0.845498716022373</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1758,76 +1758,76 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0.2117260043079079</v>
+        <v>0.2123105303071972</v>
       </c>
       <c r="C17">
-        <v>0.2186273579203572</v>
+        <v>0.2191810271310568</v>
       </c>
       <c r="D17">
-        <v>0.4173007534336837</v>
+        <v>0.4272930566303125</v>
       </c>
       <c r="E17">
-        <v>0.4798691270760094</v>
+        <v>0.5030700194732681</v>
       </c>
       <c r="F17">
-        <v>0.3104864240371957</v>
+        <v>0.3203413621126611</v>
       </c>
       <c r="G17">
-        <v>0.1913231752881736</v>
+        <v>0.183815306422773</v>
       </c>
       <c r="H17">
         <v>0.9348340301822881</v>
       </c>
       <c r="I17">
-        <v>0.5675554522464635</v>
+        <v>0.5662451400211205</v>
       </c>
       <c r="J17">
-        <v>0.9232014921894357</v>
+        <v>0.9241646515751553</v>
       </c>
       <c r="K17">
-        <v>0.8982640344186695</v>
+        <v>0.9049507078759438</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.911804007145976</v>
+        <v>0.7791304009252864</v>
       </c>
       <c r="N17">
-        <v>0.813166928988431</v>
+        <v>0.745238633863908</v>
       </c>
       <c r="O17">
-        <v>0.9212098439590376</v>
+        <v>0.8827382563635516</v>
       </c>
       <c r="P17">
-        <v>0.8395268278896219</v>
+        <v>0.7949454182924701</v>
       </c>
       <c r="Q17">
-        <v>0.8389649856907136</v>
+        <v>0.7446644653899195</v>
       </c>
       <c r="R17">
-        <v>0.8420255083384308</v>
+        <v>0.7186061368867896</v>
       </c>
       <c r="S17">
-        <v>0.6983179607545599</v>
+        <v>0.7222040416948544</v>
       </c>
       <c r="T17">
-        <v>0.6204555509052764</v>
+        <v>0.602367485196328</v>
       </c>
       <c r="U17">
-        <v>0.6317321180867056</v>
+        <v>0.5077530434873708</v>
       </c>
       <c r="V17">
-        <v>0.8429012146384783</v>
+        <v>0.8429012146384782</v>
       </c>
       <c r="W17">
-        <v>0.6853639207764134</v>
+        <v>0.6859524567418571</v>
       </c>
       <c r="X17">
-        <v>0.8253789228892381</v>
+        <v>0.8256190206495598</v>
       </c>
       <c r="Y17">
-        <v>0.8368528369422948</v>
+        <v>0.8374087016514273</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1835,76 +1835,76 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0.1994675395832473</v>
+        <v>0.2049067208996587</v>
       </c>
       <c r="C18">
-        <v>0.2007298803556937</v>
+        <v>0.2038301941466158</v>
       </c>
       <c r="D18">
-        <v>0.4172509418804811</v>
+        <v>0.4119977870903511</v>
       </c>
       <c r="E18">
-        <v>0.5758803548659284</v>
+        <v>0.5768546141238663</v>
       </c>
       <c r="F18">
-        <v>0.3960092986448858</v>
+        <v>0.3942065496321365</v>
       </c>
       <c r="G18">
-        <v>0.2142359027857974</v>
+        <v>0.2042958127511886</v>
       </c>
       <c r="H18">
         <v>0.9348340301822881</v>
       </c>
       <c r="I18">
-        <v>0.4441289996517506</v>
+        <v>0.4432595217202676</v>
       </c>
       <c r="J18">
-        <v>0.8906671839879213</v>
+        <v>0.893323956205519</v>
       </c>
       <c r="K18">
-        <v>0.9031061083015234</v>
+        <v>0.9008003588334976</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9214030940672423</v>
+        <v>0.7439364604766306</v>
       </c>
       <c r="N18">
-        <v>0.7668954911951635</v>
+        <v>0.6807477987269791</v>
       </c>
       <c r="O18">
-        <v>0.8456437011037948</v>
+        <v>0.8732951549474216</v>
       </c>
       <c r="P18">
-        <v>0.839215458636775</v>
+        <v>0.7478660484944132</v>
       </c>
       <c r="Q18">
-        <v>0.8179718059383873</v>
+        <v>0.7102449092622678</v>
       </c>
       <c r="R18">
-        <v>0.792224826296438</v>
+        <v>0.6595306910097712</v>
       </c>
       <c r="S18">
-        <v>0.6970477664638276</v>
+        <v>0.6979201392292348</v>
       </c>
       <c r="T18">
-        <v>0.607038663102463</v>
+        <v>0.5597282698408554</v>
       </c>
       <c r="U18">
-        <v>0.617651851583305</v>
+        <v>0.4850593468075066</v>
       </c>
       <c r="V18">
-        <v>0.8279286870383858</v>
+        <v>0.827928687038386</v>
       </c>
       <c r="W18">
-        <v>0.7382572722637549</v>
+        <v>0.7382572722637548</v>
       </c>
       <c r="X18">
-        <v>0.7646651840573614</v>
+        <v>0.786886985513128</v>
       </c>
       <c r="Y18">
-        <v>0.836479647050168</v>
+        <v>0.8381213708862431</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1912,76 +1912,76 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>0.1926015348370513</v>
+        <v>0.1995516283673907</v>
       </c>
       <c r="C19">
-        <v>0.4228591712901147</v>
+        <v>0.4025920419330174</v>
       </c>
       <c r="D19">
-        <v>0.4138546111599368</v>
+        <v>0.4211732825248172</v>
       </c>
       <c r="E19">
-        <v>0.575070928961129</v>
+        <v>0.5750584251567152</v>
       </c>
       <c r="F19">
-        <v>0.3861388066783961</v>
+        <v>0.3850265207052236</v>
       </c>
       <c r="G19">
-        <v>0.2223854034041864</v>
+        <v>0.2121298965000946</v>
       </c>
       <c r="H19">
         <v>0.9348340301822881</v>
       </c>
       <c r="I19">
-        <v>0.437737395529517</v>
+        <v>0.3978423064245314</v>
       </c>
       <c r="J19">
-        <v>0.885308953548297</v>
+        <v>0.8933182257190381</v>
       </c>
       <c r="K19">
-        <v>0.8938661153684065</v>
+        <v>0.8978728531465687</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.916603573645831</v>
+        <v>0.7526552555486653</v>
       </c>
       <c r="N19">
-        <v>0.7698234042524792</v>
+        <v>0.6891060062066752</v>
       </c>
       <c r="O19">
-        <v>0.8364247847410454</v>
+        <v>0.8732951549474216</v>
       </c>
       <c r="P19">
-        <v>0.8392518105930818</v>
+        <v>0.7514530880244487</v>
       </c>
       <c r="Q19">
-        <v>0.8156535418394933</v>
+        <v>0.7031227735866846</v>
       </c>
       <c r="R19">
-        <v>0.7928307474086598</v>
+        <v>0.6589776650198045</v>
       </c>
       <c r="S19">
-        <v>0.6796124988905631</v>
+        <v>0.6969474941312589</v>
       </c>
       <c r="T19">
-        <v>0.6317063552657202</v>
+        <v>0.5550574575378111</v>
       </c>
       <c r="U19">
-        <v>0.6323040124837684</v>
+        <v>0.4830943580962673</v>
       </c>
       <c r="V19">
         <v>0.8279286127560725</v>
       </c>
       <c r="W19">
-        <v>0.7382572722637549</v>
+        <v>0.7382572722637548</v>
       </c>
       <c r="X19">
-        <v>0.751854176288084</v>
+        <v>0.7734197369489613</v>
       </c>
       <c r="Y19">
-        <v>0.8369230652294548</v>
+        <v>0.836012309599995</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1989,76 +1989,76 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0.2111853942086857</v>
+        <v>0.2121775258469255</v>
       </c>
       <c r="C20">
-        <v>0.226588268203704</v>
+        <v>0.2296197665625772</v>
       </c>
       <c r="D20">
-        <v>0.4272191575454138</v>
+        <v>0.4213570229130325</v>
       </c>
       <c r="E20">
-        <v>0.5043809997276875</v>
+        <v>0.5158131003849731</v>
       </c>
       <c r="F20">
-        <v>0.3016267482495029</v>
+        <v>0.3060272094256745</v>
       </c>
       <c r="G20">
-        <v>0.201742764831573</v>
+        <v>0.2026970382540391</v>
       </c>
       <c r="H20">
         <v>0.9348340301822881</v>
       </c>
       <c r="I20">
-        <v>0.4883205883083286</v>
+        <v>0.5165796387699488</v>
       </c>
       <c r="J20">
-        <v>0.914259952086395</v>
+        <v>0.9159107944831745</v>
       </c>
       <c r="K20">
-        <v>0.9031061083015234</v>
+        <v>0.8994169091526824</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9182117312998329</v>
+        <v>0.7854911492899949</v>
       </c>
       <c r="N20">
-        <v>0.7965982068598877</v>
+        <v>0.7639613900687411</v>
       </c>
       <c r="O20">
-        <v>0.9196061092468222</v>
+        <v>0.9017753207794561</v>
       </c>
       <c r="P20">
-        <v>0.8449103417574917</v>
+        <v>0.7957085956707793</v>
       </c>
       <c r="Q20">
-        <v>0.8319097039337499</v>
+        <v>0.7345918471911455</v>
       </c>
       <c r="R20">
-        <v>0.8418612297248488</v>
+        <v>0.7047523271674947</v>
       </c>
       <c r="S20">
-        <v>0.7096202650270579</v>
+        <v>0.7296278322484065</v>
       </c>
       <c r="T20">
-        <v>0.6491804272686655</v>
+        <v>0.6015925210314707</v>
       </c>
       <c r="U20">
-        <v>0.632371741119686</v>
+        <v>0.4937356788099625</v>
       </c>
       <c r="V20">
-        <v>0.8439048206298914</v>
+        <v>0.8441915602516035</v>
       </c>
       <c r="W20">
-        <v>0.6843960050159991</v>
+        <v>0.684361834864165</v>
       </c>
       <c r="X20">
-        <v>0.806635241891728</v>
+        <v>0.8031675722295237</v>
       </c>
       <c r="Y20">
-        <v>0.8365794003282412</v>
+        <v>0.8482960398299698</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2066,76 +2066,76 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.2127072488854786</v>
+        <v>0.2092730425673353</v>
       </c>
       <c r="C21">
-        <v>0.4452779007837877</v>
+        <v>0.4487761478471723</v>
       </c>
       <c r="D21">
-        <v>0.4400277464732085</v>
+        <v>0.4316445701291169</v>
       </c>
       <c r="E21">
-        <v>0.5665094287704382</v>
+        <v>0.6126705559286221</v>
       </c>
       <c r="F21">
-        <v>0.3089517571877545</v>
+        <v>0.3273457447145757</v>
       </c>
       <c r="G21">
-        <v>0.2006798422750543</v>
+        <v>0.2022716347776871</v>
       </c>
       <c r="H21">
         <v>0.9348340301822881</v>
       </c>
       <c r="I21">
-        <v>0.4028118851426095</v>
+        <v>0.4179146222630582</v>
       </c>
       <c r="J21">
-        <v>0.9079012750760102</v>
+        <v>0.9092116431128747</v>
       </c>
       <c r="K21">
-        <v>0.9014920836739053</v>
+        <v>0.9035672581951284</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.911804007145976</v>
+        <v>0.7639344532353646</v>
       </c>
       <c r="N21">
-        <v>0.7639336783387088</v>
+        <v>0.7241945633337166</v>
       </c>
       <c r="O21">
-        <v>0.8456437011037948</v>
+        <v>0.8922312908708265</v>
       </c>
       <c r="P21">
-        <v>0.8474546058228695</v>
+        <v>0.7831298725051539</v>
       </c>
       <c r="Q21">
-        <v>0.8414756566634076</v>
+        <v>0.7243674126451669</v>
       </c>
       <c r="R21">
-        <v>0.817389463723043</v>
+        <v>0.6734919594233952</v>
       </c>
       <c r="S21">
-        <v>0.6937820436207575</v>
+        <v>0.7199952311429453</v>
       </c>
       <c r="T21">
-        <v>0.6213321700976513</v>
+        <v>0.5860620076166086</v>
       </c>
       <c r="U21">
-        <v>0.6476452580064049</v>
+        <v>0.4888112340832894</v>
       </c>
       <c r="V21">
-        <v>0.8429012839001645</v>
+        <v>0.8424719673297316</v>
       </c>
       <c r="W21">
         <v>0.6934459904982502</v>
       </c>
       <c r="X21">
-        <v>0.7837446801394071</v>
+        <v>0.746883172369836</v>
       </c>
       <c r="Y21">
-        <v>0.8393314968498301</v>
+        <v>0.8401823423737096</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2143,31 +2143,31 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>0.2087778154909664</v>
+        <v>0.2094437542957069</v>
       </c>
       <c r="C22">
         <v>0.2621225799598959</v>
       </c>
       <c r="D22">
-        <v>0.4237333141091959</v>
+        <v>0.4190657654456146</v>
       </c>
       <c r="E22">
-        <v>0.4404205115995608</v>
+        <v>0.4255257071050192</v>
       </c>
       <c r="F22">
-        <v>0.2856161740300933</v>
+        <v>0.2975771469190943</v>
       </c>
       <c r="G22">
-        <v>0.1836434170636022</v>
+        <v>0.1792410603626404</v>
       </c>
       <c r="H22">
         <v>0.9348340301822881</v>
       </c>
       <c r="I22">
-        <v>0.5784145179572128</v>
+        <v>0.5730807621049763</v>
       </c>
       <c r="J22">
-        <v>0.9221063647328762</v>
+        <v>0.922348120838186</v>
       </c>
       <c r="K22">
         <v>0.9063341575567591</v>
@@ -2176,43 +2176,43 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.911804007145976</v>
+        <v>0.7564037497885742</v>
       </c>
       <c r="N22">
-        <v>0.7566139329210966</v>
+        <v>0.7377298477760371</v>
       </c>
       <c r="O22">
-        <v>0.8767430369487296</v>
+        <v>0.8732956668451763</v>
       </c>
       <c r="P22">
-        <v>0.8355360046092849</v>
+        <v>0.7900089056478172</v>
       </c>
       <c r="Q22">
-        <v>0.8283340894174885</v>
+        <v>0.7527810182824386</v>
       </c>
       <c r="R22">
-        <v>0.8289657225619368</v>
+        <v>0.7113586910134557</v>
       </c>
       <c r="S22">
-        <v>0.6892844299028646</v>
+        <v>0.7207316316113889</v>
       </c>
       <c r="T22">
-        <v>0.6049880796392907</v>
+        <v>0.5969565008616148</v>
       </c>
       <c r="U22">
-        <v>0.6458055932683902</v>
+        <v>0.5156471399282335</v>
       </c>
       <c r="V22">
-        <v>0.8429012839001645</v>
+        <v>0.8429012839001644</v>
       </c>
       <c r="W22">
         <v>0.6875568571981948</v>
       </c>
       <c r="X22">
-        <v>0.8323236536440103</v>
+        <v>0.8298513994034684</v>
       </c>
       <c r="Y22">
-        <v>0.8430187173644424</v>
+        <v>0.8369955688816627</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2220,76 +2220,76 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>0.1977266833221566</v>
+        <v>0.1975312621520398</v>
       </c>
       <c r="C23">
-        <v>0.3187165702970225</v>
+        <v>0.3557053564190209</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4081366465792906</v>
+        <v>0.399901863345509</v>
       </c>
       <c r="F23">
-        <v>0.272489704418777</v>
+        <v>0.2677559534729746</v>
       </c>
       <c r="G23">
-        <v>0.2440993835099541</v>
+        <v>0.2494005977108986</v>
       </c>
       <c r="H23">
         <v>0.9348340301822881</v>
       </c>
       <c r="I23">
-        <v>0.4847211400969143</v>
+        <v>0.4879268235038604</v>
       </c>
       <c r="J23">
-        <v>0.8814418831258953</v>
+        <v>0.8791007103490952</v>
       </c>
       <c r="K23">
-        <v>0.9047201329291412</v>
+        <v>0.9049507078759438</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9134038450922063</v>
+        <v>0.755150902383008</v>
       </c>
       <c r="N23">
-        <v>0.7817634892149584</v>
+        <v>0.6866971555305196</v>
       </c>
       <c r="O23">
-        <v>0.8394977568619618</v>
+        <v>0.8732951549474216</v>
       </c>
       <c r="P23">
-        <v>0.841460339323478</v>
+        <v>0.7565921887718637</v>
       </c>
       <c r="Q23">
-        <v>0.816756662264568</v>
+        <v>0.7112947187443713</v>
       </c>
       <c r="R23">
-        <v>0.8107920606601439</v>
+        <v>0.662660227955465</v>
       </c>
       <c r="S23">
-        <v>0.6938090472101539</v>
+        <v>0.7031286112966282</v>
       </c>
       <c r="T23">
-        <v>0.6325924394068891</v>
+        <v>0.5659015986818305</v>
       </c>
       <c r="U23">
-        <v>0.61097112040339</v>
+        <v>0.4885819341854677</v>
       </c>
       <c r="V23">
-        <v>0.8279286870383858</v>
+        <v>0.827928687038386</v>
       </c>
       <c r="W23">
-        <v>0.6612868473332646</v>
+        <v>0.661396926866351</v>
       </c>
       <c r="X23">
-        <v>0.8238777853223397</v>
+        <v>0.824938829682624</v>
       </c>
       <c r="Y23">
-        <v>0.8401625905541046</v>
+        <v>0.8393458847858396</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2297,76 +2297,76 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.2094797185592108</v>
+        <v>0.2126207924946339</v>
       </c>
       <c r="C24">
-        <v>0.2169214413600963</v>
+        <v>0.2183500411338045</v>
       </c>
       <c r="D24">
-        <v>0.4222610501940765</v>
+        <v>0.4225842779363185</v>
       </c>
       <c r="E24">
-        <v>0.4618022567946169</v>
+        <v>0.4731089125904235</v>
       </c>
       <c r="F24">
-        <v>0.3202535618100557</v>
+        <v>0.3176026990035976</v>
       </c>
       <c r="G24">
-        <v>0.1897093234453977</v>
+        <v>0.1924351677182746</v>
       </c>
       <c r="H24">
         <v>0.9348340301822881</v>
       </c>
       <c r="I24">
-        <v>0.5703199235574399</v>
+        <v>0.5668721698456303</v>
       </c>
       <c r="J24">
-        <v>0.9247389451986798</v>
+        <v>0.9245533670935685</v>
       </c>
       <c r="K24">
-        <v>0.9063341575567591</v>
+        <v>0.9035672581951284</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9150120455333915</v>
+        <v>0.7803911979108247</v>
       </c>
       <c r="N24">
-        <v>0.8041208758459845</v>
+        <v>0.7365189377676477</v>
       </c>
       <c r="O24">
-        <v>0.9244339732044592</v>
+        <v>0.8827382563635516</v>
       </c>
       <c r="P24">
-        <v>0.8341487129128252</v>
+        <v>0.792428760495296</v>
       </c>
       <c r="Q24">
-        <v>0.8305067575772679</v>
+        <v>0.747206694409459</v>
       </c>
       <c r="R24">
-        <v>0.843580470726477</v>
+        <v>0.7218173160429252</v>
       </c>
       <c r="S24">
-        <v>0.6996265743557014</v>
+        <v>0.7202102999895195</v>
       </c>
       <c r="T24">
-        <v>0.618001226216773</v>
+        <v>0.6022286423548463</v>
       </c>
       <c r="U24">
-        <v>0.6337241480042515</v>
+        <v>0.511609669321066</v>
       </c>
       <c r="V24">
-        <v>0.8408977834842492</v>
+        <v>0.8411839879348533</v>
       </c>
       <c r="W24">
-        <v>0.6869549155309612</v>
+        <v>0.6868265819888204</v>
       </c>
       <c r="X24">
-        <v>0.8244296383470745</v>
+        <v>0.823468087395366</v>
       </c>
       <c r="Y24">
-        <v>0.8370261960392358</v>
+        <v>0.8372412244901265</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2374,31 +2374,31 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>0.2101054410988123</v>
+        <v>0.2095752007738312</v>
       </c>
       <c r="C25">
         <v>0.2621225799598959</v>
       </c>
       <c r="D25">
-        <v>0.4176018849027339</v>
+        <v>0.4199136171085995</v>
       </c>
       <c r="E25">
-        <v>0.4265086999539451</v>
+        <v>0.4366691831602943</v>
       </c>
       <c r="F25">
-        <v>0.2897857818521857</v>
+        <v>0.3012037891204616</v>
       </c>
       <c r="G25">
-        <v>0.1823813446563433</v>
+        <v>0.1833622993798411</v>
       </c>
       <c r="H25">
         <v>0.9348340301822881</v>
       </c>
       <c r="I25">
-        <v>0.5716331322957374</v>
+        <v>0.5784130011718915</v>
       </c>
       <c r="J25">
-        <v>0.9223299517782965</v>
+        <v>0.9222570992845939</v>
       </c>
       <c r="K25">
         <v>0.9063341575567591</v>
@@ -2407,43 +2407,43 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.911804007145976</v>
+        <v>0.7551488709778449</v>
       </c>
       <c r="N25">
-        <v>0.7580780674812404</v>
+        <v>0.7377298477760371</v>
       </c>
       <c r="O25">
-        <v>0.8767430369487296</v>
+        <v>0.8732956668451763</v>
       </c>
       <c r="P25">
-        <v>0.8378971369771321</v>
+        <v>0.7913356407551541</v>
       </c>
       <c r="Q25">
-        <v>0.8291388349884136</v>
+        <v>0.7509747482079715</v>
       </c>
       <c r="R25">
-        <v>0.832052282997564</v>
+        <v>0.7122911065522016</v>
       </c>
       <c r="S25">
-        <v>0.6901930280977893</v>
+        <v>0.7204515183909332</v>
       </c>
       <c r="T25">
-        <v>0.6079534317711193</v>
+        <v>0.5969886942198989</v>
       </c>
       <c r="U25">
-        <v>0.6477731794093553</v>
+        <v>0.514823126164069</v>
       </c>
       <c r="V25">
-        <v>0.8429012839001645</v>
+        <v>0.8429012839001644</v>
       </c>
       <c r="W25">
         <v>0.6875568571981948</v>
       </c>
       <c r="X25">
-        <v>0.8313046780963419</v>
+        <v>0.836490463590882</v>
       </c>
       <c r="Y25">
-        <v>0.8394533149345409</v>
+        <v>0.8400076243825529</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2451,31 +2451,31 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>0.2129568546007372</v>
+        <v>0.2155206383131807</v>
       </c>
       <c r="C26">
-        <v>0.2166956425869287</v>
+        <v>0.2192406354144102</v>
       </c>
       <c r="D26">
-        <v>0.4334814108532378</v>
+        <v>0.421223283426955</v>
       </c>
       <c r="E26">
-        <v>0.5074642394908689</v>
+        <v>0.4984181476333059</v>
       </c>
       <c r="F26">
-        <v>0.2984725281657045</v>
+        <v>0.3061763995390235</v>
       </c>
       <c r="G26">
-        <v>0.1991776791531912</v>
+        <v>0.2114572678580045</v>
       </c>
       <c r="H26">
         <v>0.9348340301822881</v>
       </c>
       <c r="I26">
-        <v>0.5558105212407222</v>
+        <v>0.549026320366207</v>
       </c>
       <c r="J26">
-        <v>0.9247460125066157</v>
+        <v>0.9250804229477604</v>
       </c>
       <c r="K26">
         <v>0.9063341575567591</v>
@@ -2484,43 +2484,43 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.9134038450922063</v>
+        <v>0.7803917388906209</v>
       </c>
       <c r="N26">
-        <v>0.7936700439767183</v>
+        <v>0.7464784270510053</v>
       </c>
       <c r="O26">
-        <v>0.9212182169774549</v>
+        <v>0.8827382563635516</v>
       </c>
       <c r="P26">
-        <v>0.8388594138448701</v>
+        <v>0.7937550188733947</v>
       </c>
       <c r="Q26">
-        <v>0.8305248336300372</v>
+        <v>0.7464808400841865</v>
       </c>
       <c r="R26">
-        <v>0.8456832073031295</v>
+        <v>0.721351552172284</v>
       </c>
       <c r="S26">
-        <v>0.6968877674590318</v>
+        <v>0.7222287936936592</v>
       </c>
       <c r="T26">
-        <v>0.6087211910639841</v>
+        <v>0.6030074561891742</v>
       </c>
       <c r="U26">
-        <v>0.6248392642398862</v>
+        <v>0.5184690363635513</v>
       </c>
       <c r="V26">
-        <v>0.8413986744606703</v>
+        <v>0.8416132946107596</v>
       </c>
       <c r="W26">
-        <v>0.6868067189670852</v>
+        <v>0.6861490376951196</v>
       </c>
       <c r="X26">
-        <v>0.8260001460937635</v>
+        <v>0.826105998345758</v>
       </c>
       <c r="Y26">
-        <v>0.8401638098083956</v>
+        <v>0.8372785916362682</v>
       </c>
     </row>
   </sheetData>
